--- a/data/polyglotV4.xlsx
+++ b/data/polyglotV4.xlsx
@@ -17,19 +17,1994 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C27">
+    <comment authorId="0" ref="J2">
+      <text>
+        <t xml:space="preserve">Choose 'all fields' from menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L2">
+      <text>
+        <t xml:space="preserve">Choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H3">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J3">
+      <text>
+        <t xml:space="preserve">Choose 'all fields' from menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L3">
+      <text>
+        <t xml:space="preserve">Choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J4">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose the 'topic' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L4">
+      <text>
+        <t xml:space="preserve">Choose the 'abstract' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J5">
+      <text>
+        <t xml:space="preserve">Choose the 'author' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L5">
+      <text>
+        <t xml:space="preserve">Choose the 'authors' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D6">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G6">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H6">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I6">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J6">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K6">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L6">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M6">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N6">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P6">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q6">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D7">
+      <text>
+        <t xml:space="preserve">Search term must be entered in the format  YYYY.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G7">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J7">
+      <text>
+        <t xml:space="preserve">The date may be formatted as YYYY or YYYY-YYYY.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K7">
+      <text>
+        <t xml:space="preserve">Search term must be entered in the format  YYYY.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L7">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M7">
+      <text>
+        <t xml:space="preserve">Search term must be entered in the format  YYYY.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P7">
+      <text>
+        <t xml:space="preserve">The date may be formatted as YYYY, YYYYMM or YYYYMMDD.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G8">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J8">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K8">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L8">
+      <text>
+        <t xml:space="preserve">Field codes unavailable – select correct field from drop down menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E9">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the exploded MeSH term has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G9">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the exploded MeSH term has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H9">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the exploded MeSH term has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I9">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J9">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K9">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L9">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q9">
+      <text>
+        <t xml:space="preserve">This is the closest matchm as terms can't be restricted to major</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H10">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I10">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J10">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K10">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L10">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N10">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P10">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q10">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J11">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose the 'topic' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K11">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L11">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q11">
+      <text>
+        <t xml:space="preserve">You have to choose 'expolde' within the interface, and lower terms are added as text.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J12">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose the 'topic' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K12">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L12">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J13">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose the 'topic' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K13">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L13">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N13">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P13">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q13">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J14">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose the 'topic' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L14">
+      <text>
+        <t xml:space="preserve">Field codes unavailable – select 'title, abstract, keywords' field from drop down menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J15">
+      <text>
+        <t xml:space="preserve">Choose the 'title' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L15">
+      <text>
+        <t xml:space="preserve">Field codes unavailable – select correct field from drop down menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J16">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose the 'topic' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L16">
+      <text>
+        <t xml:space="preserve">Field codes unavailable – select correct field from drop down menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J17">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose the 'topic' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L17">
+      <text>
+        <t xml:space="preserve">Field codes unavailable – select correct field from drop down menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G18">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H18">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I18">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J18">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K18">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L18">
+      <text>
+        <t xml:space="preserve">Choose the 'affiliation' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M18">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N18">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P18">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q18">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G19">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H19">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I19">
+      <text>
+        <t xml:space="preserve">TI field code searches titles of any source type, including chapter or book title.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J19">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K19">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L19">
+      <text>
+        <t xml:space="preserve">Field codes unavailable – select 'all fields' from drop down menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M19">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P19">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q19">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G20">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H20">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I20">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J20">
+      <text>
+        <t xml:space="preserve">Choose the 'author' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K20">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L20">
+      <text>
+        <t xml:space="preserve">Choose the 'ORCID' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M20">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N20">
+      <text>
+        <t xml:space="preserve">This searches for author IDs only for book authors</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P20">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q20">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C21">
       <text>
         <t xml:space="preserve">As no equivalent field code exists, the author field code has been substituted.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C38">
+    <comment authorId="0" ref="G21">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H21">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I21">
+      <text>
+        <t xml:space="preserve">TI field code searches titles of any source type, including chapter or book title.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J21">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K21">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L21">
+      <text>
+        <t xml:space="preserve">Field codes unavailable – select 'all fields' from drop down menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M21">
+      <text>
+        <t xml:space="preserve">This field code search across the titles of a journal, book, report or conference proceeding.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N21">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P21">
+      <text>
+        <t xml:space="preserve">This field code searches across the RN number only.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q21">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the 'source' field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G22">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H22">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I22">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J22">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K22">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L22">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M22">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N22">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P22">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q22">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G23">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H23">
+      <text>
+        <t xml:space="preserve">The date must be formatted as [DD-MM-YYYY]</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I23">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J23">
+      <text>
+        <t xml:space="preserve">Choose the 'corporate author' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K23">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L23">
+      <text>
+        <t xml:space="preserve">Choose the 'author' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M23">
+      <text>
+        <t xml:space="preserve">This field searches for CAS registry numbers only.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N23">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P23">
+      <text>
+        <t xml:space="preserve">This field code searches across the RN number only.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q23">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G24">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H24">
+      <text>
+        <t xml:space="preserve">The date must be formatted as [DD-MM-YYYY]</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I24">
+      <text>
+        <t xml:space="preserve">The date must be formatted as YYYYMMDD.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J24">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K24">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L24">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M24">
+      <text>
+        <t xml:space="preserve">Use the format YYYYMMDD.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N24">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P24">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q24">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G25">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H25">
+      <text>
+        <t xml:space="preserve">The date must be formatted as [DD-MM-YYYY]</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I25">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J25">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K25">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L25">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M25">
+      <text>
+        <t xml:space="preserve">This field searches for CAS registry numbers only.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N25">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P25">
+      <text>
+        <t xml:space="preserve">This field code searches across the RN number only.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q25">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G26">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H26">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the 'author' field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I26">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the 'author' field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J26">
+      <text>
+        <t xml:space="preserve">Choose the 'editor' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K26">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L26">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M26">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the 'author' field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N26">
+      <text>
+        <t xml:space="preserve">This field searches across book editors only.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P26">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the 'author' field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G27">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H27">
+      <text>
+        <t xml:space="preserve">The date must be formatted as [DD-MM-YYYY]</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I27">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J27">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K27">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L27">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M27">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N27">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P27">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q27">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E28">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the author field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G28">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H28">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the 'author' field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I28">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the 'author' field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J28">
+      <text>
+        <t xml:space="preserve">Choose the 'author' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L28">
+      <text>
+        <t xml:space="preserve">Choose the 'author' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M28">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the 'author' field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P28">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the 'author' field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G29">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H29">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I29">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the 'author' field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J29">
+      <text>
+        <t xml:space="preserve">Choose the 'author' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L29">
+      <text>
+        <t xml:space="preserve">Choose the 'author' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q29">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E30">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the author field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G30">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H30">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the 'author' field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I30">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the 'author' field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J30">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K30">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L30">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose the 'author' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M30">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the 'author' field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P30">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the 'author' field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G31">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H31">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J31">
+      <text>
+        <t xml:space="preserve">Choose the 'grant number' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L31">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M31">
+      <text>
+        <t xml:space="preserve">This field code searches across the name of a journal, book, report or conference proceeding.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q31">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C32">
       <text>
         <t xml:space="preserve">As no equivalent field code exists, the multi-purpose field code has been substituted.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C42">
+    <comment authorId="0" ref="E32">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the author field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G32">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H32">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the 'author' field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I32">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the 'author' field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J32">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K32">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L32">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M32">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the 'author' field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P32">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the 'author' field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G33">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I33">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J33">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L33">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M33">
+      <text>
+        <t xml:space="preserve">This field code searches across the name of a journal, book, report or conference proceeding.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N33">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G34">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H34">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I34">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the 'author' field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J34">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K34">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L34">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M34">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the 'author' field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N34">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P34">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G35">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H35">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I35">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J35">
+      <text>
+        <t xml:space="preserve">Choose the 'publication name' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K35">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L35">
+      <text>
+        <t xml:space="preserve">Choose the 'source title' or 'ISSN' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M35">
+      <text>
+        <t xml:space="preserve">This field code searches across the name of a journal, book, report or conference proceeding.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N35">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q35">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C36">
       <text>
         <t xml:space="preserve">As no equivalent field code exists, the multi-purpose field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G36">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H36">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I36">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the 'author' field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J36">
+      <text>
+        <t xml:space="preserve">Choose the 'author' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K36">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L36">
+      <text>
+        <t xml:space="preserve">Field codes unavailable – select 'author' from drop down menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M36">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the 'author' field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N36">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P36">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q36">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G37">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H37">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I37">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J37">
+      <text>
+        <t xml:space="preserve">Choose the 'DOI' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K37">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L37">
+      <text>
+        <t xml:space="preserve">Choose the 'DOI' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M37">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N37">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q37">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G38">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H38">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I38">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J38">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K38">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L38">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M38">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N38">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P38">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q38">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E39">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the multi-purpose field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G39">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H39">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I39">
+      <text>
+        <t xml:space="preserve">The date must be formatted as YYYYMMDD.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J39">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K39">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L39">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M39">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N39">
+      <text>
+        <t xml:space="preserve">The date must be formatted as YYYYMMDD.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P39">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G40">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H40">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I40">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J40">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K40">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L40">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M40">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N40">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P40">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q40">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E41">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the multi-purpose field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G41">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H41">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I41">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J41">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K41">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L41">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M41">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N41">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P41">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q41">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G42">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H42">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I42">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J42">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K42">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L42">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M42">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N42">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P42">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q42">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E43">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the multi-purpose field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G43">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H43">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I43">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J43">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K43">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L43">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M43">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N43">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P43">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q43">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G44">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H44">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I44">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J44">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K44">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L44">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M44">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N44">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P44">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q44">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E45">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the multi-purpose field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G45">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H45">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I45">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J45">
+      <text>
+        <t xml:space="preserve">Choose the 'PubMed ID' field from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K45">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L45">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M45">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N45">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P45">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q45">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G46">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H46">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I46">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J46">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K46">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L46">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M46">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N46">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P46">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q46">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E47">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the multi-purpose field code has been substituted.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G47">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H47">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I47">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J47">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K47">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L47">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M47">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N47">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P47">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q47">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G48">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H48">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I48">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J48">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K48">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L48">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M48">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N48">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P48">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q48">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G49">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H49">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J49">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K49">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L49">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M49">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N49">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P49">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q49">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G50">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H50">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I50">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J50">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K50">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L50">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M50">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N50">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="P50">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Q50">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G51">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H51">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J51">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K51">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L51">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M51">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G52">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I52">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J52">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K52">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L52">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G53">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J53">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K53">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, the term will be searched across all fields.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L53">
+      <text>
+        <t xml:space="preserve">As no equivalent field code exists, choose 'all fields' from the menu.</t>
       </text>
     </comment>
   </commentList>
@@ -52,149 +2027,570 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="377">
   <si>
     <t>Explanation</t>
   </si>
   <si>
+    <t>PubMed full</t>
+  </si>
+  <si>
     <t>PubMed abbreviation</t>
   </si>
   <si>
+    <t>PubMed abbreviation 2</t>
+  </si>
+  <si>
     <t>Ovid MEDLINE</t>
   </si>
   <si>
+    <t>Ovid MEDLINE 2</t>
+  </si>
+  <si>
+    <t>Cochrane Library</t>
+  </si>
+  <si>
+    <t>Embase (Elsevier)</t>
+  </si>
+  <si>
+    <t>CINAHL (Ebsco)</t>
+  </si>
+  <si>
+    <t>Web of Science</t>
+  </si>
+  <si>
+    <t>WoS Advanced</t>
+  </si>
+  <si>
+    <t>Scopus (basic search)</t>
+  </si>
+  <si>
+    <t>Scopus (advanced search)</t>
+  </si>
+  <si>
+    <t>PsycInfo (Ovid)</t>
+  </si>
+  <si>
+    <t>PsycInfo (Ovid) 2</t>
+  </si>
+  <si>
+    <t>ProQuest Health and Medical</t>
+  </si>
+  <si>
+    <t>SPORTDiscus</t>
+  </si>
+  <si>
     <t>All fields</t>
   </si>
   <si>
+    <t>Term[All Fields]</t>
+  </si>
+  <si>
     <t>Term[all]</t>
   </si>
   <si>
     <t>Term.mp.</t>
   </si>
   <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>ALL=Term</t>
+  </si>
+  <si>
+    <t>ALL("Term")</t>
+  </si>
+  <si>
+    <t>Term.af.</t>
+  </si>
+  <si>
+    <t>NOFT(Term)</t>
+  </si>
+  <si>
+    <t>TX Term</t>
+  </si>
+  <si>
     <t>Text word</t>
   </si>
   <si>
+    <t>Term[Text Word]</t>
+  </si>
+  <si>
     <t>Term[tw]</t>
   </si>
   <si>
+    <t>Term:ti,ab,kw</t>
+  </si>
+  <si>
+    <t>TITLE-ABS-KEY("Term")</t>
+  </si>
+  <si>
+    <t>TI,AB,IF(Term)</t>
+  </si>
+  <si>
     <t>Abstract</t>
   </si>
   <si>
+    <t>Term[Abstract]</t>
+  </si>
+  <si>
     <t>Term[ab]</t>
   </si>
   <si>
     <t>Term.ab</t>
   </si>
   <si>
+    <t>Term:ab</t>
+  </si>
+  <si>
+    <t>AB Term</t>
+  </si>
+  <si>
+    <t>AB=Term</t>
+  </si>
+  <si>
+    <t>ABS("Term")</t>
+  </si>
+  <si>
+    <t>Term.ab.</t>
+  </si>
+  <si>
+    <t>AB(Term)</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
+    <t>Term[Author]</t>
+  </si>
+  <si>
     <t>Term[au]</t>
   </si>
   <si>
     <t>Term.au.</t>
   </si>
   <si>
+    <t>Term:au</t>
+  </si>
+  <si>
+    <t>AU Term</t>
+  </si>
+  <si>
+    <t>AU=Term</t>
+  </si>
+  <si>
+    <t>AUTH(Term)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>Term.au</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>AU(Term)</t>
+  </si>
+  <si>
     <t>Conflict of interest</t>
   </si>
   <si>
+    <t>Term[Conflict of Interest Statements]</t>
+  </si>
+  <si>
     <t>Term[cois]</t>
   </si>
   <si>
     <t>Term.ci.</t>
   </si>
   <si>
+    <t>ALL(Term)</t>
+  </si>
+  <si>
     <t>Date of publication</t>
   </si>
   <si>
+    <t>("1980/01/01"[Date - Publication] : "3000"[Date - Publication])</t>
+  </si>
+  <si>
     <t>Term[DP]</t>
   </si>
   <si>
     <t>Term.dp.</t>
   </si>
   <si>
+    <t>Term:pd</t>
+  </si>
+  <si>
+    <t>PD Term</t>
+  </si>
+  <si>
+    <t>PY=Term</t>
+  </si>
+  <si>
+    <t>PUBYEAR IS Term</t>
+  </si>
+  <si>
+    <t>PD(Term)</t>
+  </si>
+  <si>
+    <t>DT Term</t>
+  </si>
+  <si>
     <t>Language</t>
   </si>
   <si>
+    <t>Term[Language]</t>
+  </si>
+  <si>
     <t>Term[LA]</t>
   </si>
   <si>
     <t>Term.lg.</t>
   </si>
   <si>
+    <t>Term:la</t>
+  </si>
+  <si>
+    <t>LA Term</t>
+  </si>
+  <si>
+    <t>LANGUAGE(Term)</t>
+  </si>
+  <si>
+    <t>LA(Term)</t>
+  </si>
+  <si>
+    <t>MeSH Major Topic search</t>
+  </si>
+  <si>
+    <t>Term[MeSH Major Topic]</t>
+  </si>
+  <si>
+    <t>Term[Majr]</t>
+  </si>
+  <si>
+    <t>exp Term/</t>
+  </si>
+  <si>
+    <t>[mh Term]</t>
+  </si>
+  <si>
+    <t>Term1'/exp</t>
+  </si>
+  <si>
+    <t>INDEXTERMS("Term")</t>
+  </si>
+  <si>
+    <t>*Term/</t>
+  </si>
+  <si>
+    <t>MJMESH.EXACT("Term")</t>
+  </si>
+  <si>
+    <t>DE "Term"</t>
+  </si>
+  <si>
+    <t>MeSH subheading search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term[MeSH Subheading] </t>
+  </si>
+  <si>
+    <t>Term[SH]</t>
+  </si>
+  <si>
+    <t>Term.fs.</t>
+  </si>
+  <si>
+    <t>[mh /term]</t>
+  </si>
+  <si>
+    <t>Mesh search (exploded)</t>
+  </si>
+  <si>
+    <t>Term[MeSH Terms]</t>
+  </si>
+  <si>
+    <t>Term[Mesh]</t>
+  </si>
+  <si>
+    <t>Term[mh]</t>
+  </si>
+  <si>
+    <t>(MH "Term+")</t>
+  </si>
+  <si>
+    <t>"Term"</t>
+  </si>
+  <si>
+    <t>Term.mh.</t>
+  </si>
+  <si>
+    <t>MESH.EXACT.EXPLODE("Term")</t>
+  </si>
+  <si>
+    <t>Mesh search (Not exploded)</t>
+  </si>
+  <si>
+    <t>Term[Mesh:no exp]</t>
+  </si>
+  <si>
+    <t>Term/</t>
+  </si>
+  <si>
+    <t>[mh ^Term]</t>
+  </si>
+  <si>
+    <t>Term'/de</t>
+  </si>
+  <si>
+    <t>(MH "Term")</t>
+  </si>
+  <si>
+    <t>MESH.EXACT("Term")</t>
+  </si>
+  <si>
+    <t>Multiple term Mesh search</t>
+  </si>
+  <si>
+    <t>"Term1 term2"[Mesh]</t>
+  </si>
+  <si>
+    <t>exp Term1 term2/</t>
+  </si>
+  <si>
+    <t>[mh "Term1 term2"]</t>
+  </si>
+  <si>
+    <t>Term1 term2'/exp</t>
+  </si>
+  <si>
+    <t>(MH "Term1 term2+")</t>
+  </si>
+  <si>
+    <t>"Term1 Term2"</t>
+  </si>
+  <si>
+    <t>INDEXTERMS("Term1 term2")</t>
+  </si>
+  <si>
     <t>Title/abstract search</t>
   </si>
   <si>
+    <t>Term[Title/Abstract]</t>
+  </si>
+  <si>
     <t>Term[tiab]</t>
   </si>
   <si>
     <t>Term.tw.</t>
   </si>
   <si>
+    <t>Term.ti,ab</t>
+  </si>
+  <si>
+    <t>Term:ti,ab</t>
+  </si>
+  <si>
+    <t>TI Term OR AB Term</t>
+  </si>
+  <si>
+    <t>TI=Term OR AB=Term</t>
+  </si>
+  <si>
+    <t>TITLE-ABS("Term")</t>
+  </si>
+  <si>
+    <t>Term.ti,ab.</t>
+  </si>
+  <si>
+    <t>TI,AB(Term)</t>
+  </si>
+  <si>
     <t>Title search</t>
   </si>
   <si>
+    <t>Term[Title]</t>
+  </si>
+  <si>
     <t>Term[ti]</t>
   </si>
   <si>
     <t>Term.ti.</t>
   </si>
   <si>
+    <t>Term:ti</t>
+  </si>
+  <si>
+    <t>TI Term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TI=Term  </t>
+  </si>
+  <si>
+    <t>TITLE("Term")</t>
+  </si>
+  <si>
+    <t>TI(Term)</t>
+  </si>
+  <si>
     <t>Keyword Field (.kf.)</t>
   </si>
   <si>
+    <t>Term[Other Term]</t>
+  </si>
+  <si>
     <t>Term[ot]</t>
   </si>
   <si>
     <t>Term.kf.</t>
   </si>
   <si>
+    <t>Term:kw</t>
+  </si>
+  <si>
+    <t>KP=Term OR AK=Term</t>
+  </si>
+  <si>
+    <t>AUTHKEY("Term")</t>
+  </si>
+  <si>
+    <t>Term.id.</t>
+  </si>
+  <si>
+    <t>IF(Term)</t>
+  </si>
+  <si>
+    <t>SU Term</t>
+  </si>
+  <si>
     <t>Title, abstract, keyword (.ti,ab,kf.)</t>
   </si>
   <si>
     <t>Term.ti,ab,kf.</t>
   </si>
   <si>
+    <t>Term.ab,kf,ti.</t>
+  </si>
+  <si>
+    <t>TI Term OR AB Term OR SU Term</t>
+  </si>
+  <si>
+    <t>TS=Term</t>
+  </si>
+  <si>
+    <t>Term.ti,ab,id.</t>
+  </si>
+  <si>
     <t>Affiliation</t>
   </si>
   <si>
+    <t>Term[Affiliation]</t>
+  </si>
+  <si>
     <t>Term[AD]</t>
   </si>
   <si>
     <t>Term.in.</t>
   </si>
   <si>
+    <t>Term:ff</t>
+  </si>
+  <si>
+    <t>AF Term</t>
+  </si>
+  <si>
+    <t>AD=Term</t>
+  </si>
+  <si>
+    <t>AFFIL(Term)</t>
+  </si>
+  <si>
+    <t>AF(Term)</t>
+  </si>
+  <si>
     <t>Article identifier</t>
   </si>
   <si>
+    <t>Term[Article Identifier]</t>
+  </si>
+  <si>
     <t>Term[AID]</t>
   </si>
   <si>
-    <t>Term.id.</t>
+    <t>Term:do,ii</t>
+  </si>
+  <si>
+    <t>AN Term</t>
+  </si>
+  <si>
+    <t>Term.ar.</t>
   </si>
   <si>
     <t>Author IDs, such as ORCiD</t>
   </si>
   <si>
+    <t>Term[Author Identifier]</t>
+  </si>
+  <si>
     <t>Term[AUID]</t>
   </si>
   <si>
     <t>Term.ai.</t>
   </si>
   <si>
+    <t>Term:oc</t>
+  </si>
+  <si>
+    <t>AI=Term</t>
+  </si>
+  <si>
+    <t>ORCID(Term)</t>
+  </si>
+  <si>
+    <t>Term.pd.</t>
+  </si>
+  <si>
     <t>Book citation field</t>
   </si>
   <si>
+    <t>Term[Book]</t>
+  </si>
+  <si>
     <t>Term[BOOK]</t>
   </si>
   <si>
     <t>Term.bt.</t>
   </si>
   <si>
+    <t>SRCTITLE(Term)</t>
+  </si>
+  <si>
+    <t>Term.bt,st,os,op,pv,pl,pa.</t>
+  </si>
+  <si>
+    <t>BK(Term)</t>
+  </si>
+  <si>
+    <t>SO Term</t>
+  </si>
+  <si>
     <t>Entry Date, NLM internal Date Completed</t>
   </si>
   <si>
+    <t>Term[Completion Date]</t>
+  </si>
+  <si>
     <t>Term[DCOM]</t>
   </si>
   <si>
@@ -204,84 +2600,267 @@
     <t>Corporate author</t>
   </si>
   <si>
+    <t>Term[Corporate Author]</t>
+  </si>
+  <si>
     <t>Term[CN]</t>
   </si>
   <si>
+    <t>CA Term</t>
+  </si>
+  <si>
+    <t>OG=Term</t>
+  </si>
+  <si>
+    <t>AUTHCOLLAB(Term)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>Term.ca</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>CA(Term)</t>
+  </si>
+  <si>
     <t>The date that the citation record was first created</t>
   </si>
   <si>
+    <t>Term[Create Date]</t>
+  </si>
+  <si>
     <t>Term[CRDT]</t>
   </si>
   <si>
     <t>Term.dt.</t>
   </si>
   <si>
+    <t>Term/sd</t>
+  </si>
+  <si>
+    <t>EM Term</t>
+  </si>
+  <si>
+    <t>LOAD-DATE Term</t>
+  </si>
+  <si>
     <t>ER/RN numbers</t>
   </si>
   <si>
+    <t>Term[EC/RN Number]</t>
+  </si>
+  <si>
     <t>Term[RN]</t>
   </si>
   <si>
     <t>Term.rn.</t>
   </si>
   <si>
+    <t>Term:rn</t>
+  </si>
+  <si>
+    <t>CASREGNUMBER(Term)</t>
+  </si>
+  <si>
+    <t>RN(Term)</t>
+  </si>
+  <si>
     <t>Editors for book or chapter citation</t>
   </si>
   <si>
+    <t>Term[Editor]</t>
+  </si>
+  <si>
     <t>Term[ED]</t>
   </si>
   <si>
     <t>Term.fe.</t>
   </si>
   <si>
+    <t>Term:ed</t>
+  </si>
+  <si>
+    <t>ED Term</t>
+  </si>
+  <si>
+    <t>EDITOR(Term)</t>
+  </si>
+  <si>
+    <t>Term.pa.</t>
+  </si>
+  <si>
+    <t>ED(Term)</t>
+  </si>
+  <si>
     <t>Date the entry was added to PubMed</t>
   </si>
   <si>
+    <t>Term[Entry Date]</t>
+  </si>
+  <si>
     <t>Term[EDAT]</t>
   </si>
   <si>
     <t>First personal author name in a citation</t>
   </si>
   <si>
+    <t>Term[First Author Name]</t>
+  </si>
+  <si>
     <t>Term[1AU]</t>
   </si>
   <si>
-    <t>Term.pa.</t>
+    <t>FIRSTAUTH(Term)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>Term.au</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
   <si>
     <t>Full authors name</t>
   </si>
   <si>
+    <t>Term[Full Author Name]</t>
+  </si>
+  <si>
     <t>Term[FAU]</t>
   </si>
   <si>
     <t>Term.fa.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>Term.au</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
     <t>Full investigators name</t>
   </si>
   <si>
+    <t>Term[Full Investigator Name]</t>
+  </si>
+  <si>
     <t>Term[FIR]</t>
   </si>
   <si>
     <t>Term.ir.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>Term.au</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
     <t>Grant and financial support numbers</t>
   </si>
   <si>
+    <t>Term[Grant Number]</t>
+  </si>
+  <si>
     <t>Term[GR]</t>
   </si>
   <si>
     <t>Term.no.</t>
   </si>
   <si>
+    <t>GI Term</t>
+  </si>
+  <si>
+    <t>FG=Term</t>
+  </si>
+  <si>
+    <t>FUND-NO(Term)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>Term.gs</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>GI(Term)</t>
+  </si>
+  <si>
     <t>Names of principal investigator(s) or collaborators</t>
   </si>
   <si>
+    <t>Term[Investigator]</t>
+  </si>
+  <si>
     <t>Term[IR]</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>Term.au</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
     <t>ISBN for book or chapter</t>
   </si>
   <si>
@@ -291,42 +2870,130 @@
     <t>Term.ib.</t>
   </si>
   <si>
+    <t>Term:ib</t>
+  </si>
+  <si>
+    <t>IB Term</t>
+  </si>
+  <si>
+    <t>IS=Term</t>
+  </si>
+  <si>
+    <t>ISBN(Term)</t>
+  </si>
+  <si>
     <t>Journal issue numbers</t>
   </si>
   <si>
+    <t>Term[Issue]</t>
+  </si>
+  <si>
     <t>Term[IP]</t>
   </si>
   <si>
     <t>Term.ip.</t>
   </si>
   <si>
+    <t>Term:ip</t>
+  </si>
+  <si>
+    <t>IP Term</t>
+  </si>
+  <si>
+    <t>ISSUE(Term) - can be a number or a word, such as summer.</t>
+  </si>
+  <si>
+    <t>ISS(Term)</t>
+  </si>
+  <si>
     <t>Journal title, abbreviation or ISSN</t>
   </si>
   <si>
+    <t>Term[Journal]</t>
+  </si>
+  <si>
     <t>Term[TA]</t>
   </si>
   <si>
     <t>Term.jn,jw,nj,ib.</t>
   </si>
   <si>
+    <t>Term:so</t>
+  </si>
+  <si>
+    <t>Term/jt</t>
+  </si>
+  <si>
+    <t>SO Term OR ST Term OR IB Term</t>
+  </si>
+  <si>
+    <t>SO=Term</t>
+  </si>
+  <si>
+    <t>Term.jn,jw,is,it.</t>
+  </si>
+  <si>
+    <t>JN,ISSN(Term)</t>
+  </si>
+  <si>
+    <t>SO Term OR IB Term</t>
+  </si>
+  <si>
     <t>Last author's name in citation</t>
   </si>
   <si>
+    <t>Term[Last Author Name]</t>
+  </si>
+  <si>
     <t>Term[LASTAU]</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>Term.au</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
     <t>DOI or publisher ID for online articles</t>
   </si>
   <si>
+    <t>Term[Location ID]</t>
+  </si>
+  <si>
     <t>Term[LID]</t>
   </si>
   <si>
     <t>Term.do.</t>
   </si>
   <si>
+    <t>Term:do,li</t>
+  </si>
+  <si>
+    <t>DO=Term</t>
+  </si>
+  <si>
+    <t>ARTNUM(Term) and DOI(Term)</t>
+  </si>
+  <si>
+    <t>DOI(Term)</t>
+  </si>
+  <si>
     <t>date the citation was indexed with MeSH Terms</t>
   </si>
   <si>
+    <t>Term[MeSH Date]</t>
+  </si>
+  <si>
     <t>Term[MHDR]</t>
   </si>
   <si>
@@ -336,51 +3003,111 @@
     <t>A completed citation's most recent update</t>
   </si>
   <si>
+    <t>Term[Modification Date]</t>
+  </si>
+  <si>
     <t>Term[LR]</t>
   </si>
   <si>
+    <t>RD Term</t>
+  </si>
+  <si>
+    <t>Term.cd.</t>
+  </si>
+  <si>
+    <t>LUPD(YYYYMMDD)</t>
+  </si>
+  <si>
+    <t>UD Term</t>
+  </si>
+  <si>
     <t>NLM ID for journal</t>
   </si>
   <si>
+    <t>Term[NLM Unique ID]</t>
+  </si>
+  <si>
     <t>Term[JID]</t>
   </si>
   <si>
     <t>Term.jc.</t>
   </si>
   <si>
+    <t>SI Term</t>
+  </si>
+  <si>
     <t>The first number the article appears on</t>
   </si>
   <si>
+    <t>Term[Pagination]</t>
+  </si>
+  <si>
     <t>Term[PG]</t>
   </si>
   <si>
     <t>Term.pg.</t>
   </si>
   <si>
+    <t>Term:sp</t>
+  </si>
+  <si>
+    <t>PP Term</t>
+  </si>
+  <si>
+    <t>PAGEFIRST(Term)</t>
+  </si>
+  <si>
+    <t>PAGE(Term)</t>
+  </si>
+  <si>
+    <t>SP Term</t>
+  </si>
+  <si>
     <t>Retrieves results where the name is the subject, rather than author</t>
   </si>
   <si>
+    <t>Term[Personal Name as Subject]</t>
+  </si>
+  <si>
     <t>Term[PS]</t>
   </si>
   <si>
     <t>Term.pn.</t>
   </si>
   <si>
+    <t>NP Term</t>
+  </si>
+  <si>
+    <t>PER(Term)</t>
+  </si>
+  <si>
     <t>Substances known to have a pharmacological action</t>
   </si>
   <si>
+    <t>Term[Pharmacological Action]</t>
+  </si>
+  <si>
     <t>Term[PA]</t>
   </si>
   <si>
     <t>Journals country of publication</t>
   </si>
   <si>
+    <t>Term[Place of Publication]</t>
+  </si>
+  <si>
     <t>Term[PL]</t>
   </si>
   <si>
     <t>Term.pl.</t>
   </si>
   <si>
+    <t>CP(Term)</t>
+  </si>
+  <si>
+    <t>CY Term</t>
+  </si>
+  <si>
     <t>PubMed indentifier</t>
   </si>
   <si>
@@ -390,31 +3117,86 @@
     <t>Term.ui.</t>
   </si>
   <si>
+    <t>PM Term</t>
+  </si>
+  <si>
+    <t>PMID=Term</t>
+  </si>
+  <si>
+    <t>PMID(Term)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>Term.pm</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
     <t>Type of material the article represents, e.g. clinical trial</t>
   </si>
   <si>
+    <t>Term[Publication Type]</t>
+  </si>
+  <si>
     <t>Term[PT]</t>
   </si>
   <si>
     <t>Term.pt.</t>
   </si>
   <si>
+    <t>Term:pt</t>
+  </si>
+  <si>
     <t>Publisher name, for NCBI BookShelf citations</t>
   </si>
   <si>
+    <t>Term[Publisher]</t>
+  </si>
+  <si>
     <t>Term[PUBN]</t>
   </si>
   <si>
+    <t>Term:bp</t>
+  </si>
+  <si>
+    <t>BOOKPUB(Term)</t>
+  </si>
+  <si>
+    <t>Term.pu.</t>
+  </si>
+  <si>
+    <t>PB(Term)</t>
+  </si>
+  <si>
     <t>Secondary source databanks and accession numbers, e.g., GenBank, GEO, PubChem, ClinicalTrials.gov, ISRCTN</t>
   </si>
   <si>
+    <t>Term[Secondary Source ID]</t>
+  </si>
+  <si>
     <t>Term[SI]</t>
   </si>
   <si>
     <t>Term.si.</t>
   </si>
   <si>
+    <t>Term:an</t>
+  </si>
+  <si>
     <t>The Journal Subset (SB) field identifies the subset for MEDLINE records from certain journal lists or records on specialized topics</t>
+  </si>
+  <si>
+    <t>Term[Subset]</t>
   </si>
   <si>
     <t>Term[SB]</t>
@@ -436,9 +3218,15 @@
     </r>
   </si>
   <si>
+    <t>SB Term</t>
+  </si>
+  <si>
     <t>Includes chemical, protocol, disease or organism terms</t>
   </si>
   <si>
+    <t>Term[Supplementary Concept]</t>
+  </si>
+  <si>
     <t>Term[NM]</t>
   </si>
   <si>
@@ -448,74 +3236,65 @@
     <t>Includes all words and numbers in the title, abstract, other abstract, MeSH terms, MeSH Subheadings, Publication Types, Substance Names, Personal Name as Subject, Corporate Author, Secondary Source, Comment/Correction Notes, and Other Terms (see Other Term [OT] above) typically non-MeSH subject terms (keywords)</t>
   </si>
   <si>
+    <t>Term[Text Words]</t>
+  </si>
+  <si>
     <t>Term[TW]</t>
   </si>
   <si>
     <t>Words and numbers of original, non-English title</t>
   </si>
   <si>
+    <t>Term[Transliterated Title]</t>
+  </si>
+  <si>
     <t>Term[TT]</t>
   </si>
   <si>
     <t>Term.ot.</t>
   </si>
   <si>
+    <t>Term:tt</t>
+  </si>
+  <si>
+    <t>TITLE(Term)</t>
+  </si>
+  <si>
+    <t>TWK(Term)</t>
+  </si>
+  <si>
+    <t>OL Term</t>
+  </si>
+  <si>
     <t>Volume number of published article</t>
   </si>
   <si>
+    <t>Term[Volume]</t>
+  </si>
+  <si>
     <t>Term[VI]</t>
   </si>
   <si>
     <t>Term.vo.</t>
   </si>
   <si>
-    <t>MeSH Major Topic search</t>
-  </si>
-  <si>
-    <t>Term[Majr]</t>
-  </si>
-  <si>
-    <t>exp Term/</t>
-  </si>
-  <si>
-    <t>MeSH subheading search</t>
-  </si>
-  <si>
-    <t>Term[SH]</t>
-  </si>
-  <si>
-    <t>Term.fs.</t>
-  </si>
-  <si>
-    <t>Mesh search (exploded)</t>
-  </si>
-  <si>
-    <t>Term[Mesh]</t>
-  </si>
-  <si>
-    <t>Mesh search (Not exploded)</t>
-  </si>
-  <si>
-    <t>Term[Mesh:no exp]</t>
-  </si>
-  <si>
-    <t>Term/</t>
-  </si>
-  <si>
-    <t>Multiple term Mesh search</t>
-  </si>
-  <si>
-    <t>"Term1 term2"[Mesh]</t>
-  </si>
-  <si>
-    <t>exp Term1 term2/</t>
+    <t>Term:vi</t>
+  </si>
+  <si>
+    <t>VI Term</t>
+  </si>
+  <si>
+    <t>VOLUME(Term)</t>
+  </si>
+  <si>
+    <t>VOL(Term)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -524,6 +3303,11 @@
     <font>
       <b/>
       <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <name val="Arial"/>
     </font>
     <font>
@@ -532,33 +3316,44 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <b/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FFFF9900"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF212121"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
     </font>
     <font>
       <color rgb="FFFF9900"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Verdana"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.0"/>
-      <color theme="1"/>
+      <color rgb="FF212121"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -573,12 +3368,24 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FFB4C6E7"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -599,7 +3406,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -607,60 +3414,102 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -896,526 +3745,2499 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
+      <c r="A4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
+      <c r="A5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
+      <c r="A6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>19</v>
+      <c r="A7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="17" t="s">
         <v>22</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" s="10"/>
+      <c r="P8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>25</v>
+      <c r="A9" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>31</v>
+      <c r="A11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>33</v>
+      <c r="A12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>36</v>
+      <c r="A13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="10"/>
+      <c r="P13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>39</v>
+      <c r="A14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" s="10"/>
+      <c r="P14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>42</v>
+      <c r="A15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" s="10"/>
+      <c r="P15" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>45</v>
+      <c r="A16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" s="10"/>
+      <c r="P16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>48</v>
+      <c r="A17" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" s="10"/>
+      <c r="P17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>13</v>
+      <c r="A18" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" s="10"/>
+      <c r="P18" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>53</v>
+      <c r="A19" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="O19" s="10"/>
+      <c r="P19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>56</v>
+      <c r="A20" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="O20" s="10"/>
+      <c r="P20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>59</v>
+      <c r="A21" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="O21" s="10"/>
+      <c r="P21" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>48</v>
+      <c r="A22" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="10"/>
+      <c r="P22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>64</v>
+      <c r="A23" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="O23" s="10"/>
+      <c r="P23" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>67</v>
+      <c r="A24" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="10"/>
+      <c r="P24" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>70</v>
+      <c r="A25" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" s="10"/>
+      <c r="P25" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>73</v>
+      <c r="A26" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="O26" s="10"/>
+      <c r="P26" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>13</v>
+      <c r="A27" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N27" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="10"/>
+      <c r="P27" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>78</v>
+      <c r="A28" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="O28" s="10"/>
+      <c r="P28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>81</v>
+      <c r="A29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="O29" s="10"/>
+      <c r="P29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>84</v>
+      <c r="A30" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="O30" s="10"/>
+      <c r="P30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>39</v>
+      <c r="A31" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="O31" s="10"/>
+      <c r="P31" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q31" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>89</v>
+      <c r="A32" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="O32" s="10"/>
+      <c r="P32" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>92</v>
+      <c r="A33" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="O33" s="10"/>
+      <c r="P33" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="9"/>
+      <c r="A34" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="O34" s="10"/>
+      <c r="P34" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>97</v>
+      <c r="A35" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="O35" s="10"/>
+      <c r="P35" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>100</v>
+      <c r="A36" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="O36" s="10"/>
+      <c r="P36" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>103</v>
+      <c r="A37" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O37" s="10"/>
+      <c r="P37" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q37" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>5</v>
+      <c r="A38" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O38" s="10"/>
+      <c r="P38" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>108</v>
+      <c r="A39" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N39" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="O39" s="10"/>
+      <c r="P39" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>111</v>
+      <c r="A40" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N40" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O40" s="10"/>
+      <c r="P40" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q40" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>114</v>
+      <c r="A41" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="O41" s="10"/>
+      <c r="P41" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q41" s="9" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>5</v>
+      <c r="A42" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N42" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42" s="10"/>
+      <c r="P42" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q42" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>119</v>
+      <c r="A43" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N43" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43" s="10"/>
+      <c r="P43" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q43" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>122</v>
+      <c r="A44" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N44" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" s="10"/>
+      <c r="P44" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>125</v>
+      <c r="A45" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="L45" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="N45" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="O45" s="10"/>
+      <c r="P45" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q45" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="8" t="s">
+      <c r="A46" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N46" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O46" s="10"/>
+      <c r="P46" s="17" t="s">
         <v>25</v>
+      </c>
+      <c r="Q46" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>130</v>
+      <c r="A47" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="O47" s="10"/>
+      <c r="P47" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q47" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>133</v>
+      <c r="A48" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N48" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O48" s="10"/>
+      <c r="P48" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q48" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N49" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O49" s="10"/>
+      <c r="P49" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q49" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N50" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O50" s="10"/>
+      <c r="P50" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O51" s="10"/>
+      <c r="P51" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="F52" s="15"/>
+      <c r="G52" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="O52" s="15"/>
+      <c r="P52" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q52" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="F53" s="15"/>
+      <c r="G53" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L53" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="O53" s="15"/>
+      <c r="P53" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q53" s="9" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -1440,66 +6262,66 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>136</v>
+      <c r="A2" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>139</v>
+      <c r="A3" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>136</v>
+      <c r="A4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>144</v>
+      <c r="A5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>147</v>
+      <c r="A6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
